--- a/Result/测试用例.xlsx
+++ b/Result/测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -94,9 +94,10 @@
       </rPr>
       <t>1.第一步</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+  </si>
+  <si>
+    <r>
+      <t/>
     </r>
     <r>
       <rPr>
@@ -105,9 +106,10 @@
       </rPr>
       <t>2.第二部</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+  </si>
+  <si>
+    <r>
+      <t/>
     </r>
     <r>
       <rPr>
@@ -116,9 +118,10 @@
       </rPr>
       <t>3.第三部</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+  </si>
+  <si>
+    <r>
+      <t/>
     </r>
     <r>
       <rPr>
@@ -139,9 +142,10 @@
       </rPr>
       <t>1.预期1</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+  </si>
+  <si>
+    <r>
+      <t/>
     </r>
     <r>
       <rPr>
@@ -150,9 +154,10 @@
       </rPr>
       <t>2.预期2</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+  </si>
+  <si>
+    <r>
+      <t/>
     </r>
     <r>
       <rPr>
@@ -186,60 +191,126 @@
       </rPr>
       <t>1.第一步</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>用例2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="13"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.第一步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="12"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
       <t>2.第二部</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.第三部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>用例2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="13"/>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>用例3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>用例4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
       <t>1.第一步</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.第二</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>用例5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="10"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="10"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
@@ -252,17 +323,20 @@
     </r>
     <r>
       <rPr>
+        <color indexed="10"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
       <t>1.预期1</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="10"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
@@ -275,123 +349,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>用例3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.第一步</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.第二部</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.第三部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>用例4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="17"/>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.第一步</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.第二</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>用例5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.第一步</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.第二部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
+        <color indexed="10"/>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
@@ -747,58 +705,78 @@
     <font>
       <name val="宋体"/>
       <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="12"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -813,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -854,170 +832,227 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -1037,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -1091,199 +1126,314 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="21">
+      <c r="A2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s" s="22">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s" s="14">
+      <c r="J4" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="I10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="19">
+      <c r="J11" s="62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="31">
+      <c r="J12" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s" s="28">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="30">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="27">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s" s="32">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="24">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="41">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="38">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="33">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="40">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s" s="36">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="35">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="37">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s" s="42">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="34">
+    </row>
+    <row r="15">
+      <c r="I15" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="51">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s" s="46">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="47">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="44">
+    </row>
+    <row r="16">
+      <c r="A16" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s" s="49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="61">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s" s="58">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="53">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="60">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s" s="56">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="55">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s" s="62">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="54">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s" s="59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="71">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s" s="68">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s" s="63">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s" s="66">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="65">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s" s="67">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s" s="72">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="64">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s" s="69">
-        <v>25</v>
+      <c r="J16" s="87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
+  <dataValidations count="12">
+    <dataValidation type="list" sqref="F2" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E2" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F6" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E6" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/Result/测试用例.xlsx
+++ b/Result/测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -83,7 +83,19 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>1.前置条件1</t>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>Draft</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -94,7 +106,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>2.前置条件2</t>
+      <t>Deprecated</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -105,91 +117,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>3.前置条件3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.步骤1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.步骤2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.步骤3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>High</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>这是状态</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>这是项目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>这是目的1</t>
+      <t>Deprecated</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -200,79 +128,18 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>这是目的2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.预期1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.预期2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.预期3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>这是模块</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2020-02-03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>这是设计者</t>
+      <t>Approved</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>哈哈哈</t>
     </r>
   </si>
 </sst>
@@ -281,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -348,50 +215,6 @@
       <name val="宋体"/>
       <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -438,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -483,40 +306,28 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -524,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -578,51 +389,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>26</v>
+      <c r="A2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>32</v>
+      <c r="G2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="I3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="I4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Result/测试用例.xlsx
+++ b/Result/测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -72,30 +72,15 @@
     <t>Low</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>High</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>Draft</t>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.已在的页面上</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -106,7 +91,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>Deprecated</t>
+      <t>2.除测试控件外，其他信息均正确填写</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -117,29 +102,154 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>Deprecated</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>Approved</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>哈哈哈</t>
+      <t>3.清除测试控件内容，其他信息均不改变</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.查看测试控件选项</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.从第一个选项开始，将所有的选项依次点击</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.不进行选择（不改变默认选项），点击“”按钮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>4.选择选项中的第一项，点击“”按钮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>5.选择选项中的最后一项，点击“”按钮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.测试控件选项应有一个默认选项</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.不会出现有两个或以上的选项被选中的情况</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.创建成功，界面返回到列表页，其列表上显示新增的信息，并且新增数据的测试控件显示为新增时所选信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>4.创建成功，界面返回到列表页，其列表上显示新增的信息，并且新增数据的测试控件显示为新增时所选信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>5.创建成功，界面返回到列表页，其列表上显示新增的信息，并且新增数据的测试控件显示为新增时所选信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>对界面的测试控件进行测试</t>
     </r>
   </si>
 </sst>
@@ -148,7 +258,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -215,6 +325,42 @@
       <name val="宋体"/>
       <sz val="12.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -261,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -297,6 +443,60 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -335,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -389,44 +589,114 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
+      <c r="A2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>18</v>
+      <c r="J3" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" sqref="F2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F7" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Result/测试用例.xlsx
+++ b/Result/测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -72,15 +72,45 @@
     <t>Low</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.已在的页面上</t>
+    <t>测试用例-模块</t>
+  </si>
+  <si>
+    <t>第25模块</t>
+  </si>
+  <si>
+    <t>第26模块</t>
+  </si>
+  <si>
+    <t>第27模块</t>
+  </si>
+  <si>
+    <t>第28模块</t>
+  </si>
+  <si>
+    <t>第29模块</t>
+  </si>
+  <si>
+    <t>第30模块</t>
+  </si>
+  <si>
+    <t>第31模块</t>
+  </si>
+  <si>
+    <t>第32模块</t>
+  </si>
+  <si>
+    <t>第33模块</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.已在新增的页面上</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -93,17 +123,6 @@
       </rPr>
       <t>2.除测试控件外，其他信息均正确填写</t>
     </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.清除测试控件内容，其他信息均不改变</t>
-    </r>
   </si>
   <si>
     <r>
@@ -249,7 +268,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>对界面的测试控件进行测试</t>
+      <t>对新增界面的测试控件进行测试</t>
     </r>
   </si>
 </sst>
@@ -329,6 +348,7 @@
     <font>
       <name val="宋体"/>
       <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -407,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -443,6 +463,9 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -589,115 +612,121 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="I3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="I4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>28</v>
+      <c r="J4" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="I5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>29</v>
+      <c r="I5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="I6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>30</v>
+      <c r="I6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>25</v>
+      <c r="A7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" sqref="F2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$4</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="D2" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$10</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="F7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="D7" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -706,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -719,6 +748,9 @@
       <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -727,6 +759,9 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -735,6 +770,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -742,6 +780,39 @@
       </c>
       <c r="B4" t="s">
         <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Result/测试用例.xlsx
+++ b/Result/测试用例.xlsx
@@ -15,8 +15,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>E8WPO9ZF7HLPHVE</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="1">
+      <text>
+        <t>模块标记</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -212,7 +228,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>1.myTest001_前置1</t>
+      <t>1.前置1</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -223,258 +239,200 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>2.myTest001_前置2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.myTest001_步骤1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.myTest001_步骤2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>myTest001_优先级1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>Approved</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>验证创建账号界面各个控件输入是否有效</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.myTest001_预期1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.myTest001_预期2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>TEST-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>/测试项目/账号管理/创建账号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>myTest001_标题1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>test</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.myTest002_前置1</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.myTest002_前置2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.myTest002_步骤1_测试</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.myTest002_步骤2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.myTest002_步骤3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>myTest002_优先级1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.myTest002_预期1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>myTest002_标题1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>myTest001_标题1混合</t>
+      <t>2.前置2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.步骤1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.步骤2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.步骤3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>Deprecated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>角色管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>目的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.预期1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.预期2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.预期3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>YWHJT-365</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>是</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>/企业端web/项目管理/标段现场管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>测试一个标题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>彭宇琦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t/>
     </r>
   </si>
 </sst>
@@ -483,7 +441,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="64">
+  <fonts count="48">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -592,70 +550,7 @@
     <font>
       <name val="宋体"/>
       <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -782,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -848,100 +743,58 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -968,9 +821,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -1032,11 +889,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>68</v>
+      <c r="A2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>62</v>
@@ -1044,136 +901,88 @@
       <c r="D2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>71</v>
+      <c r="L2" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>70</v>
+      <c r="E3" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="D4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="5">
-      <c r="D5" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="36" t="s">
+      <c r="A5" s="45" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>70</v>
+      <c r="B5" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
-  <dataValidations count="18">
+  <dataValidations count="12">
     <dataValidation type="list" sqref="H2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
@@ -1192,44 +1001,28 @@
     <dataValidation type="list" sqref="F2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$E$2:$E$27</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H4" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="H5" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G4" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="G5" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I4" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="I5" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$C$2:$C$6</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L4" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="L5" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$D$2:$D$6</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K4" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="K5" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$F$2:$F$3</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="F4" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$E$2:$E$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="H7" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="G7" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I7" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$C$2:$C$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="L7" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$D$2:$D$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="K7" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$F$2:$F$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F7" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="F5" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$E$2:$E$27</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Result/测试用例.xlsx
+++ b/Result/测试用例.xlsx
@@ -15,24 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-    <author>E8WPO9ZF7HLPHVE</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="1">
-      <text>
-        <t>模块标记</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -228,27 +212,291 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>1.前置1</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.前置2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="17"/>
+      <t>1.列表中有信息存在</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.查看用户列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.下拉刷新列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.上拉加载列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>4.在无剩余数据时，上拉加载列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>5.加载或刷新列表时点击某一个信息或某一个按钮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.能看到当前存在的所有信息，且信息按一定规则排序</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.列表被刷新，若有新增信息则被显示出来，且原有数据排序不会混乱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.能加载剩下的信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>4.上拉有效，但不加载出数据或数据不会错乱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>5.app不会闪退，且能正常显示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>浏览用户列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.预期1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.预期2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>/企业/合并</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>/运营端web/用户管理/运营用户管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>/运营端web/项目管理/标段现场管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>/运营端web/项目管理/标段合并管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.合并步骤1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.合并步骤2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.合并预期1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.合并预期2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
@@ -276,163 +524,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>3.步骤3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>High</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>Deprecated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>角色管理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>目的</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>1.预期1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>2.预期2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>3.预期3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>YWHJT-365</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>是</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>/企业端web/项目管理/标段现场管理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>测试一个标题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>彭宇琦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t/>
+      <t>标题2</t>
     </r>
   </si>
 </sst>
@@ -441,7 +533,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="48">
+  <fonts count="151">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -550,7 +642,418 @@
     <font>
       <name val="宋体"/>
       <sz val="12.0"/>
-      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -677,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="151">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -746,19 +1249,331 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -821,13 +1636,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -889,10 +1700,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -901,36 +1712,36 @@
       <c r="D2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="F2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>73</v>
+      <c r="I2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -938,51 +1749,389 @@
       <c r="D4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="D5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>78</v>
+      <c r="G9" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="121" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="134" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="146" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
-  <dataValidations count="12">
+  <dataValidations count="60">
     <dataValidation type="list" sqref="H2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
@@ -1001,28 +2150,170 @@
     <dataValidation type="list" sqref="F2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$E$2:$E$27</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H5" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="H7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G5" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="G7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I5" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="I7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$C$2:$C$6</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L5" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="L7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$D$2:$D$6</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K5" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="K7" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$F$2:$F$3</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="F5" allowBlank="true" errorStyle="stop">
+    <dataValidation type="list" sqref="F7" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H13" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G13" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I13" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L13" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K13" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F13" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F14" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F16" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$E$2:$E$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H18" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G18" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I18" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="L18" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K18" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$F$2:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F18" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$E$2:$E$27</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
